--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/3_Afyonkarahisar_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/3_Afyonkarahisar_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD04400-012C-46EE-AD18-7B5690326DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C614DB7A-203D-43FD-9AA2-64EABFE81BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{A2ECE3A7-04FB-4F0B-8392-17B2AFBC5091}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{8E6F827F-235A-47D0-B05A-FACA3C40A2E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -978,19 +978,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{E94125DC-AA62-413B-BD6F-5088DC590DB9}"/>
+    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{E906A0F2-A4BF-45D9-9E83-E533E114918B}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{97378950-A0FE-42BB-84E6-95C86C1B631E}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{B012A725-0526-4B93-8F01-6ADB07D03C94}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{E0375155-3E86-419A-9812-681DD6FBA1D5}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{7F9FAB26-8489-47C3-A215-3324F3FE4ACC}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{7CF69554-ECA1-4CB6-A8A8-A77047803450}"/>
-    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{B7089B43-9171-4A1B-91A4-FD6046995D1C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{09A41454-8394-4E33-B720-4A571536A871}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{77316F6C-5351-4F53-9B85-196A239E92FD}"/>
-    <cellStyle name="Not 2" xfId="11" xr:uid="{9E7205A7-5F2A-47EF-9DAF-119244F72E1E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{96D8F2E6-96C3-4A00-B51A-4D933D2961FA}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{FBD1AFCB-8173-447A-AA50-280EF948CB0B}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{132F59FD-D96F-4B57-884B-4C2123EE1178}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{5448CC1D-CC74-4641-B8FE-796344812DF3}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{921AA7F7-7E33-40EC-B16C-103D563EC577}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{B8CA59D6-1C97-4664-9E86-354D3A473FBD}"/>
+    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{A4802093-8B54-4FD2-8E94-3C5D0AF7D931}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{D392A2D3-1B67-486C-B004-C30341554D47}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{1DB296B5-8046-4632-990C-3D4E35C0054D}"/>
+    <cellStyle name="Not 2" xfId="11" xr:uid="{D94438B4-9D5A-4445-8A2B-2C898AD9E28B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{0F156C9C-F57D-49C6-85D3-D51E9D21E73C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AED193-2E89-4A4B-A2ED-267B5553CF01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415F022E-4F25-40D2-B0C9-BB9B8B70B689}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2674,18 +2674,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DB04CC7-8F8A-4E22-A8E0-F546CC91B15D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC945932-6DC6-4C39-990E-6AE0AC43E252}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56A3F395-4361-4EB4-8189-68E1A93F0350}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DEFEBF35-7A97-4D4F-8D64-54E8C8124EE9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A900AC37-28D0-4CDE-A921-3C19662316DF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A51C000F-9662-42C3-810A-2272E1B3C245}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEBA9FAD-CEE4-4F40-B984-4ECA6804566F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED6ED9E7-89F8-4B3D-83CE-D4FD459BC502}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFD12B83-070F-4FEE-8B8B-AF92B6347265}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25B052AB-ED2A-44EB-816A-52EB139C222E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CAF325C4-85C6-4DE0-95AB-6A4B4A7F3DDA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38A3D75C-2CED-4CC0-9EF9-ED9FA3C76F95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F5B4942-495A-4114-8612-07C60B396401}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51DA6D6D-448D-48C9-BD06-55636491CF6D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78C846D8-5EA4-49EA-BD01-5F3633B447C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{02256A38-4AC8-4619-A9D5-34539B2E0276}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{112C4751-5E3D-4C53-A6CE-4E67F4F53DF6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C41A0BA6-6F70-4FA0-89D5-7075F48470D4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{193FD1E1-2932-4E01-84FD-C97A3EA9D4FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CA11A332-345D-4337-AEC8-08D84E398636}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AB1A0DA-88CC-4B49-8AA5-057C2487F3AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8CA4FF55-4AB3-4D16-8F7B-F2265313CE1C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E5ED6CA-B473-456E-9C4C-66CC2E354EDB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6E66E7A-9155-44E6-A724-1C14C93E8A09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2698,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA06B4A-A3EB-41E0-89F5-01F7B1B2B8BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C96F85-9008-4EF7-A4DB-18678B427A3E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3993,18 +3993,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4548AEE-6B96-4A51-9959-070357F8CE0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C47CAD6C-6F2C-4BB7-9C48-86675F32291E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8C4FDA25-6FF3-4857-A245-39B46EC99B83}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78756A65-1FD9-4CE8-B5F6-549979F24594}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3167D5E4-A1AF-4B36-96C8-646BD1156BF6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26ABFD76-58F6-47BA-89F2-D917362803F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F0829AC-ED61-47B3-A883-6AF573696E99}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E407CF3C-8C54-460C-BA87-3E58BA1BBBEE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9423A89-9024-4F7B-BA62-2D73E8D3F6F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7BAF0A71-CFBF-4756-B3FE-C0D884BB7597}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B27AF85E-C439-4590-87F1-2C05D33E2C65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{884359BB-425A-4FE6-9FA5-3649EEA2B7D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7D93DEC-BBA8-4976-96DA-7373FCFFC0B2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E700A4DF-9013-4B6C-BBF3-7F62E7FE2195}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{873C3483-D5BB-4178-913A-6CB3E36FB072}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48283F38-7412-4C1E-AD97-A60340EE0D64}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2FC574E1-D723-4066-9840-42092EB749D0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70B0B4B3-DDF3-4C07-B677-C1691DF3880A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7CC5E20-494C-42D0-8655-5B34DF6AD546}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{91B3F2B8-ADD7-4C46-AAC7-5C2A3D5DD3A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAFF3997-578A-45FB-BBFA-D05F95075705}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DC2EE0EF-AAB4-4EA5-ADBC-1E1F3925DEFF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{06BA6F30-472C-4754-B2F6-A9671A939E6F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8494149-CF3B-45A1-95DB-DF09C8469F20}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4017,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8841A63B-BD72-4AF0-8F38-530867A0C79D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF03774-7098-43C8-B83A-9B9781DC2E7A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5308,18 +5308,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{585C8D56-641C-4463-94CF-9A77C0292856}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28EBA9DF-28E9-4C0E-B0FE-5F1534612332}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE5E412E-99F8-42C0-9824-47C2D9693F7E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A42ED7C0-6E1E-4A43-9B60-DA3879694469}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CC9A3AFE-49BC-4266-B161-B4BDA10CDF25}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5647D516-53A6-4F38-A583-09C65CCDAB4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{571EE118-2BDC-4A97-BD7D-E3BB60E774F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{64844C5A-48D5-4DE5-94C5-0C0CAA28E4AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25BDD2E8-0C59-4B66-A383-94B87D091720}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0FCB90BD-E72A-4959-B745-12702667024C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1EFF650-3B68-4FA8-BC99-64F18F43A636}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F357798A-5BBC-4D7D-B9A4-CB9EAF3E4DE4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{373A766E-858E-423D-A636-9E669E5A8E70}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25F9424A-6507-40BC-B914-CA6D826F1AAF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{243D358C-D5E1-4D59-B773-0A3ABA9021E8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB3D317D-2BCA-4EE2-8FD5-B19D022773F0}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{45DB7656-03A2-4711-A535-03D3F0A62E5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8209798C-3CA9-4893-A90E-4624453217E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{98129944-B076-4B20-BE56-3D74C46A4F46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACC86F17-342C-47A2-AA03-96E6AF7E165A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5B28CA0-916B-4E00-847C-DAB271CFF8CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A70D560-BD99-4642-A2D6-D2BA2C42A3D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B0FD1D8-F1FE-455F-9453-2A727DDAA063}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF5C26ED-FFCB-4FC7-A6E8-091D11EFAADC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5332,7 +5332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CAD6B9-25CF-47BA-AD4D-572AABF59D67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB93736F-6B12-49BE-BA30-EA3DCCB27B84}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6614,18 +6614,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{622793D1-AC46-4257-8C68-E582CB0655F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15E851C0-D0C6-48F6-8339-B9C14FC4D19D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{70B638A5-31B1-4B12-BD84-1B10188E070A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79568954-FCDE-463E-AED2-8065FFAE8830}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{622C81F1-3113-43B5-807E-03EAC21263AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49E56C56-6B4C-4C38-B38C-735AEC3752BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E446D9F-E3E7-4FAE-96D0-70C0E484A65A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AEBF5F9-2546-4BCC-BC0B-97138CE9FDE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A56C34D-231E-4825-99A2-9149922F9D08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E499F024-A8EF-4C3D-ACE0-A6A21608BABF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9098F4E5-5ED7-460C-953A-E22248F8EDDE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F255B11-18E8-4183-B5DA-0F1EB3334ED9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AAFBA45-B077-4835-9E9D-E3DE73EACD94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D0C31B8-A55B-48E0-9144-9F3A903F8624}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F5342C89-B73D-4E67-BF01-2587F9B7C719}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08214655-2A7D-4652-A752-E5C169B59C63}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9E58A6D2-C33E-40B6-8397-E76281BB3DFD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27D5CC84-1FBC-48A3-92DA-5ABF81A9555A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12ED768F-5F33-4253-A542-F711ADA22F23}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ABC390A0-02ED-455A-B2FF-3218063A7291}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF7FD619-3893-471E-BBBA-53D506834135}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4473AA53-D976-48A9-8D5C-8EACB00AC848}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB5FA79E-8391-42E5-BCA3-05D982CE4B2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B4F385F-16D4-4450-B4C5-5CAE874090AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6638,7 +6638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE58E167-D3B7-4BCE-B41C-B38640353B26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3942AF98-B29A-4EC4-876F-8D4B10C49510}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7949,18 +7949,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C67EB68-F684-4F57-865D-2A04E93EBA68}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78105D8F-57B2-4165-97CB-FE98FB4F5D8D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C284BFF-4D03-449E-AD40-95FD8861DFF1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7D923B8-A198-40A2-B0EE-0D7AEB55930B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{51ECEEB4-3D31-4485-AEDF-37F0E728BD8A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3CB1480F-B2DC-477E-B961-8EB7FE819A0F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE057418-52D2-4932-99AA-688789E2089C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F055C5C4-6395-4EE9-8082-F79EA99CAFFD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{765140EB-803D-4FC8-AE0C-87A310939090}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D18602A2-4262-44D1-8C25-6DF339A4445F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B0674C2-3AA1-4F4D-9E95-077319871658}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57BFD510-597B-414B-9EA8-568DE569495A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE794D15-C1C4-4A50-9EBC-7B0DCA83918F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D29122AA-27DD-4FFD-B53F-342DAED0EABD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1C93B300-D943-4FD7-810F-22305FAC2753}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3A42C79-B1B4-4DEE-B88B-B8DF5E0645B5}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{96C97720-4D55-413A-BE06-9CA375A6D84A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9839D808-2B4B-4987-BB7B-60335E8D1ED0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{245E9A40-0FA6-4C6B-8EBB-6E17DF936C85}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1191E99D-B510-4A12-9114-180B103C502D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BED18AE7-9CBE-4B47-BA71-E3F66237F5AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22F20A94-9357-4E84-8335-6C2D086BD4BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDFFE65E-4F76-4DC9-9204-F98CEFCAE0BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9EC1AA1-C742-4752-9F2E-18355F13F62D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7973,7 +7973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2170DDCA-60F2-4404-9632-7FE28535BB3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CEF54-6F67-406F-9C0D-D249CCB47574}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9284,18 +9284,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55C47CA9-8C33-4FD4-94F9-7FF0CB587F9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F29DABB-2819-4C48-A932-DC6A425372B6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA2F16A7-602A-4824-8FDB-F3ACAA778283}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBC161B3-A354-4C58-B02A-80B4B506BF51}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{50DFD1CC-EBA6-42EC-A6EB-C6B0E2014310}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7A02AE0-145B-4988-9454-7FE0B6D59FE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E68FE7C2-AADF-4429-8B51-620C739C05A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8526C27-DCD2-48C9-8591-BE8E05391D5A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{668A7347-FFD9-40DD-8C9B-413D72D27A18}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B696BBA2-5455-4B34-9EDB-80807F69AA72}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FD8E7A3-0783-44E0-97FD-2C76C242825B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EA9953F-32E0-4D92-8818-88273D7614E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9218B467-9B5D-473D-A5F8-A854505629FA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0905FBFC-3521-479A-B94C-F99EA2D653F6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9E61170-DFEE-4BAB-B6B8-477631E901FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78B4003C-2A6B-49E0-9CC3-D8A173C26750}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2A5DD354-33D8-40DA-A075-A6B18F0FE706}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D31171F-6F59-44DA-AFF7-11880BB3C053}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA0C5661-2846-4E08-BCA9-A44917F145E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D9537A5F-A2FC-4A85-90A9-BAAA7CFF0B46}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1AA5DBD-22D9-43C5-90EE-B6803F630604}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7C7F755-8568-4C0C-8920-CC45ED7341D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{609DC82C-B34D-4088-A6FC-034D45383C08}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD2F623A-619E-4842-B1BB-689F121AFF5A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9308,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6FFCEF0-B331-4B0A-83A0-7432DEF6ABDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBE0B27-287D-42E9-9B00-E51184D673D2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10619,18 +10619,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6390AEAA-DE4E-4865-9FFE-C657453129BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8AC8F00C-73C2-40B0-B2FA-D242A2C3F4D8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{37E7F557-36B1-42D3-97ED-B86A461D2F3B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6FE830A7-7BEC-4529-B125-8EE3E7BE53A5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{BB31162B-A0BD-4DF7-A383-4D9359DEF08F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E39642F3-5618-44DD-8A72-B2AE3E891E47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5235CD9-075E-45C6-8024-5E92505EFBF2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{576BC64A-AC0C-4F6D-BCA1-3AC5F728F143}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52A300CF-E5C8-4ECA-8FAD-D3A11979136E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73476F6C-A8EB-4461-8A31-A1C4C3025D6B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FADCF60-C477-4348-939D-BEE3949B1B03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C8BB1BC-47E8-438D-81E0-B39C3EEA39C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C03039BB-E4B1-49C6-B758-527BD1C58815}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D734967-32EB-431E-BD44-C7CABE51FF92}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F60F753-6982-4DE8-ABF2-0CD955C80EE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E9F8D0E2-2B15-4555-9BB8-5DB1C4C68D92}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CF2A42BB-95ED-4061-9C03-8D35AB7D6A82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D7309B5-C631-405D-9E0F-3D008BC28597}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59214227-E691-473F-A402-C0074D26668E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{957A6164-86F3-4153-AE05-EE2327748267}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FCF2D4B-E662-49D3-9BF0-B6200FB923E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C01EFE13-5544-4A79-95EA-BB0D44974587}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E3D150F-F207-4F89-8230-BFC45D1042E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C8EE47F-BE7A-498D-8E59-FCE77E55B6BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10643,7 +10643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91461CD5-F278-4A5D-A599-B98FFD9BB5C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B805E-3094-431C-9E2A-946A966763C2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11954,18 +11954,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2C86472-D586-47B3-A6A1-93F664BE1029}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEF85817-DB9E-4386-ACD8-BC0BA8094498}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71273AB7-1FA6-4087-B5BB-8E942BA44F9C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{62D191C6-404D-4E03-BD15-180CAC4E24C8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{766756FA-2A3B-46CC-9382-B7E127DAD279}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{625E55A1-C0FF-4BCE-A3BB-7B72B93F7ADD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{672F4B07-9960-4C3B-8ABD-742136EFD51A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9BFB6A23-0806-4A22-97C1-0B4C0146FC7E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76AC7E35-A846-4A36-A6AC-507300F6F3A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF14F37D-5786-4A21-9C0D-F37DCBD740B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7627699-EA24-4BE4-8078-E4E33A960E23}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D3FC5A8-0755-40AA-AA98-ED5538DD20FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C307D76-517C-4D74-8003-34B9497BC528}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{266C3EDA-4080-4CD1-98E4-604BA6D6B631}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E21E3868-D759-4B65-A726-8A47DE7217CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADA063CD-08D2-4594-BC2B-06844C363A08}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8D86C536-4639-4806-AA1C-71D903A5A37E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5B75FE5C-2FED-40DC-8E13-86A47B26F8D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE7E0B27-F32C-4E1E-929F-0DCBF61CDD3F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9178B00B-DA60-417B-B43D-785377E31CF6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1ABB6F1-4D86-4B71-8AAE-4150877EA8C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0847B9B5-24E4-4992-9A4C-284EA2CD3928}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6FD9D96F-2EAF-48E5-9DF6-096CF1E68E2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1DE70733-3B18-4E03-BBC0-EAA620D72833}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11978,7 +11978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71AD8B9-2AC3-4833-B012-87312A908A0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36816F2B-A7ED-4958-A820-A5F8A0FD782B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13289,18 +13289,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EEF31C1-BDD1-4E6E-99C9-00B80EEEC8FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3928F7D6-EA32-4774-B6D2-68E767CE24CF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A94ED8D8-6530-4433-A837-138E86C28BF0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F4BC978-9164-4B6A-95B5-B007C79FAECE}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B4251C12-B22C-4CC4-A68B-8606E41A8B25}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66B38229-B8D1-4582-B1FA-AE8A1A0D90BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{35B85CB1-4E52-4E66-8896-CFED14B1932E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{489302BC-439D-4357-9E54-7E9FBCC3A350}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1060626B-7A4A-4BD4-99F7-977125F05F1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3163A88F-2C8F-47FA-9468-EDC95AAE7CBC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3C37647-FC02-44A1-9703-AE9FE8D7AB05}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD7F7C01-7175-4B9D-9B6C-15371B1E783A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FDDE60D-D85F-4E6D-8DD8-3DE7ACA28B29}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CDE032A-B12A-4618-B4E8-63823A552768}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FA99F18F-6EE2-44AF-9825-BC70C20FE41D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E28A5848-1A9D-4F9F-B803-FFF0A812655F}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C0D2DEDC-F3CB-4C14-87B7-97D380C96B0E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66B1DEE3-DEAC-4505-91CA-B2B1B560BB96}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E183240D-5C8D-4F59-A361-F0630E27D0EC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03CD4CBA-A089-4527-AAB9-6E7E1E1BA851}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B1B2663-6D54-4FAC-AC44-26A55CA2652F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BB19214-AAD6-4FF0-A7BF-CBFFCB244D6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB243E65-954F-4B1F-B3D1-92DBB3121F19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2416AE8-3E9A-4444-A1E4-904CD4C6F164}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13313,7 +13313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187ABD7C-24C6-4318-925B-35A94D81B43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E123FED6-240B-4018-8115-A42366DB288C}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14624,18 +14624,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56C739BB-2F59-44C1-9062-F763B2E0DE22}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{236B2D85-4865-4C7B-9461-976528D57439}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{99335A55-73CD-4F1E-B660-09D7F006F69A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6449585-915C-4CC1-83CE-1DF067F37752}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C72BC088-789B-4977-B8FD-225848DE0E38}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FD2B4C0-250E-411B-9D9E-1CE0917FE66C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F4EBB5C-9729-4E13-988F-5BB41DE1D8E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5642C9D4-86F6-4D6B-BF02-D82599693186}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{263EE878-EAFD-430B-893A-3A878C59670A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70C74D77-59D5-4C8E-9B60-A511D851CB23}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{218AA48D-5D49-4933-B87E-3B6D1FBECD65}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{595B8F94-E135-4AFC-9D1E-B72D9F3D3236}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{076620BD-0B9E-4880-973B-2B822046E291}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A16CE26-1986-498F-8BC0-FF047B6A07AD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A9549D8A-89FC-4E29-920A-C88778381508}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B587720E-F3EA-4F42-BEB3-AC06F712947C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C939AC9F-F180-448B-943D-45E4EC1A2F8C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B29C2F0C-3A46-4A3F-96FB-66CCC5F3DFB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08D89D78-0BD8-45CE-A10A-38D056E5DACB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57D88EA6-57D6-4FC0-A192-A2296403214E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1D91135-8481-4E8C-ADE7-7AC6BF589FA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C34A005-120B-4356-A2E8-DF62D7A4DCB1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42499A0E-30FA-47AA-9B27-73650AAF6DFC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55AD22EA-2E35-4FE2-A0D3-B615D9890847}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14648,7 +14648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2539D19A-DCFD-4BBB-AF68-BC669396C354}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865179A4-FF05-4396-A0DA-8B08B827F114}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15951,18 +15951,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0B3D3A63-FA7A-4324-8FF5-45C903750051}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{302AA3E9-E339-40BB-B127-7B031CD9B7A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{182CD426-BEDD-4EE4-AE2D-0B20E2A813E9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48776227-B538-411A-B2B0-119AF193AEB9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{547D5090-8B1F-40F8-BAD3-75209542C639}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0DBAD53-4C32-44A7-A6AD-827A55C60D4D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50F0B38C-8665-4401-9D7C-E6B658364566}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{961A61E6-A72D-47E6-ACB6-6BC7AF57BAB7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A15C224-207A-4B0A-9D2D-BC72567E5350}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9AFCFF9-BC9C-4FFE-AD71-3E9DBE682FAE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57A748B5-CDF4-46BF-9E00-620C1D4C60AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{92722BFB-0C92-4EF3-8242-203410574230}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12D50C1F-BCA8-4707-AD17-6C980E6CDE2F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{228F547E-E803-4466-A750-1E8027371894}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A06E3962-F9A5-4D01-8C8E-AEDEB2EF5687}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91CE850A-9268-43E8-B4D7-DB0FE79EDBB2}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{81000DC5-ADB4-4853-8B05-1ED1E310739A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{136C420D-7833-4BDC-B0CD-02DD5F07385C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF8AC79A-C868-4B14-999F-F1EA14215E61}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8D37E9A8-CF3A-45B5-ADAF-046E199828FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8617A282-819F-48AD-B5A1-B253ED4C4EE3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2F91D04-AAEE-47F5-BF8C-8E0A583A9CFA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FB6CE8C-2942-4703-BC9D-D7396E0BF160}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EC35282-3B1C-4AC7-9856-3D6086001037}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15975,7 +15975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0497B437-F8D8-45C4-A462-C86E2C6127E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B03F88F-827E-4A2C-9EA8-E3A5432B88EE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17278,18 +17278,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{42119166-156F-46F5-A171-60477CFE45F9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9DE1F34-E9F6-4BAE-A443-6570F2B14731}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1DC23589-E918-49F6-AF82-7060ADE7DDCC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31AD8291-1E60-47C2-8B30-2D40C085B9ED}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{E8FAC734-519E-4252-A3EA-CE2BC5DA115D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BEC623AF-57CA-443E-B8F4-FF906FBC797A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE3DBA0B-77AA-4F0E-AB4D-82CC45D191AA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EBAC70DE-D8BF-453F-9570-06CA82ABE684}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D39855D4-FA09-4EBA-86DC-4F73071447CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E6E30D3-0633-4648-925E-3E4EF4271C87}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8E3BE10-DBBF-4EAC-903E-20FAA8F556C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{43EBD166-242D-4520-96D5-A1635BBDFB05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{002B22AF-9BD0-455C-BB63-2FA45FCF1FE2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78AB9A16-227D-4614-B8AD-6942DA5CC330}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C329118-6F6E-4148-A364-9E3E24DC2274}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3A9EBDD-400D-467B-A8F8-7CE6D201BB90}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{CE5E227E-E9DD-4528-978C-8D2FD4E939FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15A3FB9A-6393-4273-A227-7A15190C2823}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{257341CF-931F-4052-BFDD-BE1AB4980E48}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BA5E05DF-4C77-48D1-B234-7A9F537A3F90}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{28E23521-68FD-4341-A3A8-DEC7EFADF919}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A96D8866-43D0-44B7-8205-8F90B5CA3436}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{506B2C46-6994-4EFA-B96E-7965EC137075}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51043049-BCBC-4739-AF96-3AE239E8A671}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
